--- a/documents/Inventory.xlsx
+++ b/documents/Inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D27B1F-CA17-4FEC-A241-58F9CF8B84D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833799AA-2CE4-4594-9542-78CB10856979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="418">
   <si>
     <t>Item#</t>
   </si>
@@ -2550,20 +2550,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2641,93 +2728,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3080,12 +3080,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="186" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
@@ -3119,7 +3119,7 @@
       <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="183" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -3147,7 +3147,7 @@
       <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="186"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="186"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="182" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3228,7 +3228,7 @@
       <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183"/>
+      <c r="A8" s="182"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="183"/>
+      <c r="A9" s="182"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="183"/>
+      <c r="A10" s="182"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="183"/>
+      <c r="A11" s="182"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183"/>
+      <c r="A12" s="182"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183" t="s">
+      <c r="A16" s="182" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3405,7 +3405,7 @@
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="183"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="183"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="183"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="183"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="183"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="183"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="183"/>
+      <c r="A25" s="182"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="183"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="183"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="183" t="s">
+      <c r="A29" s="182" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3659,7 +3659,7 @@
       <c r="M29" s="66"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="183"/>
+      <c r="A30" s="182"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="183"/>
+      <c r="A31" s="182"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3699,7 +3699,7 @@
       <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183"/>
+      <c r="A32" s="182"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="M32" s="66"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
+      <c r="A33" s="182"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="183"/>
+      <c r="A34" s="182"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="M34" s="66"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="182" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3779,7 +3779,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="183"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3794,7 +3794,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="182" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3817,7 +3817,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="183"/>
+      <c r="A40" s="182"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3835,7 +3835,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="183"/>
+      <c r="A41" s="182"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3853,7 +3853,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="183"/>
+      <c r="A42" s="182"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3888,7 +3888,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="184" t="s">
+      <c r="A45" s="185" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3908,7 +3908,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="184"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3930,7 +3930,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="184" t="s">
+      <c r="A48" s="185" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3947,7 +3947,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="184"/>
+      <c r="A49" s="185"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3959,7 +3959,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="183" t="s">
+      <c r="A51" s="182" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3979,7 +3979,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="183"/>
+      <c r="A52" s="182"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3994,7 +3994,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="183"/>
+      <c r="A53" s="182"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -4009,7 +4009,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="183"/>
+      <c r="A54" s="182"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -4024,7 +4024,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="183"/>
+      <c r="A55" s="182"/>
       <c r="B55" s="36" t="s">
         <v>88</v>
       </c>
@@ -4042,7 +4042,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="183"/>
+      <c r="A56" s="182"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -4057,7 +4057,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="183"/>
+      <c r="A57" s="182"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -4072,7 +4072,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="183"/>
+      <c r="A58" s="182"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -4087,7 +4087,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="183"/>
+      <c r="A59" s="182"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -4102,7 +4102,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="183"/>
+      <c r="A60" s="182"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -4117,7 +4117,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="183"/>
+      <c r="A61" s="182"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="183"/>
+      <c r="A62" s="182"/>
       <c r="B62" s="36" t="s">
         <v>121</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="183"/>
+      <c r="A63" s="182"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -4171,7 +4171,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="183"/>
+      <c r="A64" s="182"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4189,7 +4189,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="183"/>
+      <c r="A65" s="182"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4207,7 +4207,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="183"/>
+      <c r="A66" s="182"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4222,7 +4222,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="183"/>
+      <c r="A67" s="182"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="183"/>
+      <c r="A68" s="182"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4252,7 +4252,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="183" t="s">
+      <c r="A70" s="182" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4272,7 +4272,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="183"/>
+      <c r="A71" s="182"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4284,7 +4284,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="183"/>
+      <c r="A72" s="182"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4300,7 +4300,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="183" t="s">
+      <c r="A74" s="182" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4321,7 +4321,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="183"/>
+      <c r="A75" s="182"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4336,7 +4336,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="183"/>
+      <c r="A76" s="182"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4351,7 +4351,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="183"/>
+      <c r="A77" s="182"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4366,7 +4366,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="183"/>
+      <c r="A78" s="182"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4381,7 +4381,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="183"/>
+      <c r="A79" s="182"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4396,7 +4396,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="183"/>
+      <c r="A80" s="182"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4411,7 +4411,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="183"/>
+      <c r="A81" s="182"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4427,6 +4427,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4434,11 +4439,6 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4468,111 +4468,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="219" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="192"/>
-      <c r="H1" s="208" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="221"/>
+      <c r="H1" s="237" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="209"/>
-      <c r="J1" s="210"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="239"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="224"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="206" t="s">
+      <c r="I2" s="235" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="207"/>
+      <c r="J2" s="236"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="196"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="198"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="H3" s="107"/>
-      <c r="I3" s="206" t="s">
+      <c r="I3" s="235" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="207"/>
+      <c r="J3" s="236"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="229" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="230"/>
       <c r="F4" s="41"/>
       <c r="G4" s="31"/>
       <c r="H4" s="114"/>
-      <c r="I4" s="206" t="s">
+      <c r="I4" s="235" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="207"/>
+      <c r="J4" s="236"/>
       <c r="K4" s="106"/>
-      <c r="L4" s="213" t="s">
+      <c r="L4" s="187" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="215"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="189"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="79"/>
       <c r="U4" s="79"/>
-      <c r="V4" s="222" t="s">
+      <c r="V4" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="223"/>
-      <c r="X4" s="223"/>
-      <c r="Y4" s="223"/>
-      <c r="Z4" s="224"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="198"/>
       <c r="AA4" s="79"/>
       <c r="AB4" s="31"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="202"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="203"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="231"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="232"/>
       <c r="F5" s="41"/>
       <c r="G5" s="31"/>
       <c r="H5" s="121"/>
-      <c r="I5" s="211" t="s">
+      <c r="I5" s="240" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="212"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="218"/>
+      <c r="J5" s="241"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="192"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="79"/>
       <c r="U5" s="79"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="226"/>
-      <c r="X5" s="226"/>
-      <c r="Y5" s="226"/>
-      <c r="Z5" s="227"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="200"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="201"/>
       <c r="AA5" s="79"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,16 +4630,16 @@
       <c r="Z6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="240" t="s">
+      <c r="AA6" s="214" t="s">
         <v>390</v>
       </c>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="241"/>
-      <c r="AE6" s="241"/>
+      <c r="AB6" s="215"/>
+      <c r="AC6" s="215"/>
+      <c r="AD6" s="215"/>
+      <c r="AE6" s="215"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="228" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="74" t="s">
@@ -4660,7 +4660,7 @@
       <c r="G7" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L7" s="219" t="s">
+      <c r="L7" s="193" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="74" t="s">
@@ -4702,7 +4702,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
+      <c r="A8" s="228"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="G8" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="220"/>
+      <c r="L8" s="194"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
+      <c r="A9" s="228"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4780,7 +4780,7 @@
       <c r="G9" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="220"/>
+      <c r="L9" s="194"/>
       <c r="M9" s="26" t="s">
         <v>173</v>
       </c>
@@ -4820,7 +4820,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="199"/>
+      <c r="A10" s="228"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4839,7 +4839,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="220"/>
+      <c r="L10" s="194"/>
       <c r="M10" s="26" t="s">
         <v>178</v>
       </c>
@@ -4877,7 +4877,7 @@
       <c r="AA10" s="79"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="199"/>
+      <c r="A11" s="228"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4896,7 +4896,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="220"/>
+      <c r="L11" s="194"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="AA11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
+      <c r="A12" s="228"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="220"/>
+      <c r="L12" s="194"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4971,7 +4971,7 @@
       <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
+      <c r="A13" s="228"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4990,7 +4990,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="220"/>
+      <c r="L13" s="194"/>
       <c r="M13" s="26" t="s">
         <v>181</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="AB13" s="79"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="204"/>
+      <c r="A14" s="233"/>
       <c r="B14" s="77" t="s">
         <v>181</v>
       </c>
@@ -5037,7 +5037,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="221"/>
+      <c r="L14" s="195"/>
       <c r="M14" s="77" t="s">
         <v>350</v>
       </c>
@@ -5066,7 +5066,7 @@
       <c r="AC14" s="79"/>
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="205" t="s">
+      <c r="A15" s="234" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="78" t="s">
@@ -5087,7 +5087,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="234" t="s">
+      <c r="L15" s="208" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="78" t="s">
@@ -5108,19 +5108,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="228" t="s">
+      <c r="V15" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="229"/>
-      <c r="X15" s="229"/>
-      <c r="Y15" s="229"/>
-      <c r="Z15" s="229"/>
-      <c r="AA15" s="229"/>
-      <c r="AB15" s="229"/>
-      <c r="AC15" s="230"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="203"/>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="204"/>
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="199"/>
+      <c r="A16" s="228"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="235"/>
+      <c r="L16" s="209"/>
       <c r="M16" s="26" t="s">
         <v>183</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="AC16" s="108"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
+      <c r="A17" s="233"/>
       <c r="B17" s="77" t="s">
         <v>185</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="235"/>
+      <c r="L17" s="209"/>
       <c r="M17" s="26" t="s">
         <v>185</v>
       </c>
@@ -5225,7 +5225,7 @@
       <c r="AC17" s="89"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="234" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="139" t="s">
@@ -5243,7 +5243,7 @@
       <c r="F18" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L18" s="235"/>
+      <c r="L18" s="209"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="AC18" s="92"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="199"/>
+      <c r="A19" s="228"/>
       <c r="B19" s="139" t="s">
         <v>191</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="F19" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L19" s="236"/>
+      <c r="L19" s="210"/>
       <c r="M19" s="77" t="s">
         <v>356</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="AC19" s="92"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="199"/>
+      <c r="A20" s="228"/>
       <c r="B20" s="139" t="s">
         <v>193</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="F20" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L20" s="234" t="s">
+      <c r="L20" s="208" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="26" t="s">
@@ -5373,7 +5373,7 @@
       <c r="AC20" s="92"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="199"/>
+      <c r="A21" s="228"/>
       <c r="B21" s="139" t="s">
         <v>195</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="F21" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L21" s="235"/>
+      <c r="L21" s="209"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5417,7 +5417,7 @@
       <c r="AC21" s="92"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="204"/>
+      <c r="A22" s="233"/>
       <c r="B22" s="144" t="s">
         <v>197</v>
       </c>
@@ -5433,7 +5433,7 @@
       <c r="F22" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L22" s="235"/>
+      <c r="L22" s="209"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="AC22" s="92"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="205" t="s">
+      <c r="A23" s="234" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="149" t="s">
@@ -5483,7 +5483,7 @@
       <c r="F23" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L23" s="235"/>
+      <c r="L23" s="209"/>
       <c r="M23" s="26" t="s">
         <v>359</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="AC23" s="92"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="199"/>
+      <c r="A24" s="228"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5531,7 +5531,7 @@
       <c r="F24" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L24" s="235"/>
+      <c r="L24" s="209"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5563,7 +5563,7 @@
       <c r="AC24" s="92"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="199"/>
+      <c r="A25" s="228"/>
       <c r="B25" s="139" t="s">
         <v>205</v>
       </c>
@@ -5579,7 +5579,7 @@
       <c r="F25" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L25" s="235"/>
+      <c r="L25" s="209"/>
       <c r="M25" s="85" t="s">
         <v>361</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="AC25" s="92"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="199"/>
+      <c r="A26" s="228"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5621,7 +5621,7 @@
       <c r="F26" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L26" s="236"/>
+      <c r="L26" s="210"/>
       <c r="M26" s="131" t="s">
         <v>362</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="AC26" s="92"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="199"/>
+      <c r="A27" s="228"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="F27" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L27" s="237" t="s">
+      <c r="L27" s="211" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="70" t="s">
@@ -5702,7 +5702,7 @@
       <c r="AC27" s="92"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="199"/>
+      <c r="A28" s="228"/>
       <c r="B28" s="118" t="s">
         <v>376</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="100"/>
-      <c r="L28" s="238"/>
+      <c r="L28" s="212"/>
       <c r="M28" s="26"/>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
@@ -5738,7 +5738,7 @@
       <c r="AC28" s="92"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="204"/>
+      <c r="A29" s="233"/>
       <c r="B29" s="142" t="s">
         <v>377</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="F29" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L29" s="239"/>
+      <c r="L29" s="213"/>
       <c r="M29" s="132" t="s">
         <v>364</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="AC29" s="92"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="228" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5823,7 +5823,7 @@
       <c r="AC30" s="92"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="199"/>
+      <c r="A31" s="228"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5862,7 +5862,7 @@
       <c r="AC31" s="92"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="199"/>
+      <c r="A32" s="228"/>
       <c r="B32" s="38" t="s">
         <v>364</v>
       </c>
@@ -5980,16 +5980,16 @@
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
       <c r="J35" s="105"/>
-      <c r="L35" s="231" t="s">
+      <c r="L35" s="205" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="232"/>
-      <c r="N35" s="232"/>
-      <c r="O35" s="232"/>
-      <c r="P35" s="232"/>
-      <c r="Q35" s="232"/>
-      <c r="R35" s="232"/>
-      <c r="S35" s="233"/>
+      <c r="M35" s="206"/>
+      <c r="N35" s="206"/>
+      <c r="O35" s="206"/>
+      <c r="P35" s="206"/>
+      <c r="Q35" s="206"/>
+      <c r="R35" s="206"/>
+      <c r="S35" s="207"/>
       <c r="U35" s="79"/>
       <c r="V35" s="79"/>
       <c r="W35" s="79"/>
@@ -6002,16 +6002,16 @@
       <c r="AD35" s="26"/>
     </row>
     <row r="36" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="216" t="s">
         <v>295</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="189"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="217"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="218"/>
       <c r="J36" s="31"/>
       <c r="L36" s="63" t="s">
         <v>19</v>
@@ -7903,15 +7903,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L35:S35"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="AA6:AE6"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7925,6 +7916,15 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="AA6:AE6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8042,8 +8042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1A9C66-1455-44D0-A321-27231B372C5D}">
   <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,107 +8061,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="219" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="192"/>
-      <c r="H1" s="208" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="221"/>
+      <c r="H1" s="237" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="209"/>
-      <c r="J1" s="210"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="239"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="224"/>
       <c r="H2" s="147"/>
-      <c r="I2" s="206" t="s">
+      <c r="I2" s="235" t="s">
         <v>385</v>
       </c>
-      <c r="J2" s="207"/>
+      <c r="J2" s="236"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="196"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="198"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="H3" s="159"/>
-      <c r="I3" s="211" t="s">
+      <c r="I3" s="240" t="s">
         <v>370</v>
       </c>
-      <c r="J3" s="212"/>
+      <c r="J3" s="241"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="229" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="230"/>
       <c r="F4" s="41"/>
       <c r="G4" s="31"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
       <c r="K4" s="106"/>
-      <c r="L4" s="213" t="s">
+      <c r="L4" s="187" t="s">
         <v>396</v>
       </c>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="215"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="189"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="79"/>
       <c r="U4" s="79"/>
-      <c r="V4" s="222" t="s">
+      <c r="V4" s="196" t="s">
         <v>397</v>
       </c>
-      <c r="W4" s="223"/>
-      <c r="X4" s="223"/>
-      <c r="Y4" s="223"/>
-      <c r="Z4" s="224"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="198"/>
       <c r="AA4" s="79"/>
       <c r="AB4" s="31"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="202"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="203"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="231"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="232"/>
       <c r="F5" s="41"/>
       <c r="G5" s="31"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="218"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="235"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="192"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="79"/>
       <c r="U5" s="79"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="226"/>
-      <c r="X5" s="226"/>
-      <c r="Y5" s="226"/>
-      <c r="Z5" s="227"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="200"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="201"/>
       <c r="AA5" s="79"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8217,14 +8217,14 @@
       <c r="Z6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="240"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="241"/>
-      <c r="AE6" s="241"/>
+      <c r="AA6" s="214"/>
+      <c r="AB6" s="215"/>
+      <c r="AC6" s="215"/>
+      <c r="AD6" s="215"/>
+      <c r="AE6" s="215"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="228" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="74" t="s">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="F7" s="156"/>
       <c r="G7" s="31"/>
-      <c r="L7" s="219" t="s">
+      <c r="L7" s="193" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="74" t="s">
@@ -8276,7 +8276,7 @@
       <c r="AA7" s="79"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
+      <c r="A8" s="228"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="F8" s="156"/>
       <c r="G8" s="31"/>
-      <c r="L8" s="220"/>
+      <c r="L8" s="194"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -8324,7 +8324,7 @@
       <c r="AA8" s="79"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
+      <c r="A9" s="228"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="31"/>
-      <c r="L9" s="220"/>
+      <c r="L9" s="194"/>
       <c r="M9" s="26" t="s">
         <v>173</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="AA9" s="79"/>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="199"/>
+      <c r="A10" s="228"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="26"/>
-      <c r="L10" s="220"/>
+      <c r="L10" s="194"/>
       <c r="M10" s="26" t="s">
         <v>178</v>
       </c>
@@ -8420,7 +8420,7 @@
       <c r="AA10" s="79"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="199"/>
+      <c r="A11" s="228"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="26"/>
-      <c r="L11" s="220"/>
+      <c r="L11" s="194"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -8458,7 +8458,7 @@
       <c r="AA11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
+      <c r="A12" s="228"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="26"/>
-      <c r="L12" s="220"/>
+      <c r="L12" s="194"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
+      <c r="A13" s="228"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="26"/>
-      <c r="L13" s="220"/>
+      <c r="L13" s="194"/>
       <c r="M13" s="26" t="s">
         <v>181</v>
       </c>
@@ -8534,7 +8534,7 @@
       <c r="AB13" s="79"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="204"/>
+      <c r="A14" s="233"/>
       <c r="B14" s="77" t="s">
         <v>181</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="26"/>
-      <c r="L14" s="221"/>
+      <c r="L14" s="195"/>
       <c r="M14" s="77" t="s">
         <v>350</v>
       </c>
@@ -8573,7 +8573,7 @@
       <c r="AC14" s="79"/>
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="205" t="s">
+      <c r="A15" s="234" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="78" t="s">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="26"/>
-      <c r="L15" s="234" t="s">
+      <c r="L15" s="208" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="78" t="s">
@@ -8606,19 +8606,19 @@
         <v>352</v>
       </c>
       <c r="Q15" s="41"/>
-      <c r="V15" s="228" t="s">
+      <c r="V15" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="229"/>
-      <c r="X15" s="229"/>
-      <c r="Y15" s="229"/>
-      <c r="Z15" s="229"/>
-      <c r="AA15" s="229"/>
-      <c r="AB15" s="229"/>
-      <c r="AC15" s="230"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="203"/>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="204"/>
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="199"/>
+      <c r="A16" s="228"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -8631,9 +8631,11 @@
       <c r="E16" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G16" s="26"/>
-      <c r="L16" s="235"/>
+      <c r="L16" s="209"/>
       <c r="M16" s="26" t="s">
         <v>183</v>
       </c>
@@ -8660,7 +8662,7 @@
       <c r="AC16" s="108"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
+      <c r="A17" s="233"/>
       <c r="B17" s="161" t="s">
         <v>185</v>
       </c>
@@ -8673,9 +8675,11 @@
       <c r="E17" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G17" s="26"/>
-      <c r="L17" s="235"/>
+      <c r="L17" s="209"/>
       <c r="M17" s="26" t="s">
         <v>185</v>
       </c>
@@ -8705,7 +8709,7 @@
       <c r="AC17" s="89"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="234" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -8721,7 +8725,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="235"/>
+      <c r="L18" s="209"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -8751,7 +8755,7 @@
       <c r="AC18" s="92"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="199"/>
+      <c r="A19" s="228"/>
       <c r="B19" s="38" t="s">
         <v>191</v>
       </c>
@@ -8765,7 +8769,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="100"/>
-      <c r="L19" s="236"/>
+      <c r="L19" s="210"/>
       <c r="M19" s="77" t="s">
         <v>356</v>
       </c>
@@ -8795,7 +8799,7 @@
       <c r="AC19" s="92"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="199"/>
+      <c r="A20" s="228"/>
       <c r="B20" s="38" t="s">
         <v>193</v>
       </c>
@@ -8809,7 +8813,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="100"/>
-      <c r="L20" s="234" t="s">
+      <c r="L20" s="208" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="26" t="s">
@@ -8835,7 +8839,7 @@
       <c r="AC20" s="92"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="199"/>
+      <c r="A21" s="228"/>
       <c r="B21" s="38" t="s">
         <v>195</v>
       </c>
@@ -8849,7 +8853,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="100"/>
-      <c r="L21" s="235"/>
+      <c r="L21" s="209"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -8875,7 +8879,7 @@
       <c r="AC21" s="92"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="204"/>
+      <c r="A22" s="233"/>
       <c r="B22" s="161" t="s">
         <v>197</v>
       </c>
@@ -8889,7 +8893,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="100"/>
-      <c r="L22" s="235"/>
+      <c r="L22" s="209"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -8919,7 +8923,7 @@
       <c r="AC22" s="92"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="205" t="s">
+      <c r="A23" s="234" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="149" t="s">
@@ -8935,7 +8939,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="100"/>
-      <c r="L23" s="235"/>
+      <c r="L23" s="209"/>
       <c r="M23" s="148" t="s">
         <v>359</v>
       </c>
@@ -8965,21 +8969,23 @@
       <c r="AC23" s="92"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="199"/>
-      <c r="B24" s="166" t="s">
+      <c r="A24" s="228"/>
+      <c r="B24" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="167">
-        <v>1</v>
-      </c>
-      <c r="D24" s="167">
-        <v>0</v>
-      </c>
-      <c r="E24" s="168" t="s">
+      <c r="C24" s="164">
+        <v>1</v>
+      </c>
+      <c r="D24" s="164">
+        <v>3</v>
+      </c>
+      <c r="E24" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="100"/>
-      <c r="L24" s="235"/>
+      <c r="F24" s="100" t="s">
+        <v>382</v>
+      </c>
+      <c r="L24" s="209"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -9009,7 +9015,7 @@
       <c r="AC24" s="92"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="199"/>
+      <c r="A25" s="228"/>
       <c r="B25" s="38" t="s">
         <v>205</v>
       </c>
@@ -9022,8 +9028,10 @@
       <c r="E25" s="165" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="100"/>
-      <c r="L25" s="235"/>
+      <c r="F25" s="100" t="s">
+        <v>382</v>
+      </c>
+      <c r="L25" s="209"/>
       <c r="M25" s="85" t="s">
         <v>361</v>
       </c>
@@ -9047,7 +9055,7 @@
       <c r="AC25" s="92"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="199"/>
+      <c r="A26" s="228"/>
       <c r="B26" s="166" t="s">
         <v>207</v>
       </c>
@@ -9061,7 +9069,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="100"/>
-      <c r="L26" s="236"/>
+      <c r="L26" s="210"/>
       <c r="M26" s="131" t="s">
         <v>362</v>
       </c>
@@ -9087,7 +9095,7 @@
       <c r="AC26" s="92"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="199"/>
+      <c r="A27" s="228"/>
       <c r="B27" s="38" t="s">
         <v>209</v>
       </c>
@@ -9101,7 +9109,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="100"/>
-      <c r="L27" s="237" t="s">
+      <c r="L27" s="211" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="70" t="s">
@@ -9133,7 +9141,7 @@
       <c r="AC27" s="92"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="199"/>
+      <c r="A28" s="228"/>
       <c r="B28" s="169" t="s">
         <v>376</v>
       </c>
@@ -9147,7 +9155,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="100"/>
-      <c r="L28" s="238"/>
+      <c r="L28" s="212"/>
       <c r="M28" s="26"/>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
@@ -9169,7 +9177,7 @@
       <c r="AC28" s="92"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="204"/>
+      <c r="A29" s="233"/>
       <c r="B29" s="172" t="s">
         <v>377</v>
       </c>
@@ -9183,7 +9191,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="100"/>
-      <c r="L29" s="239"/>
+      <c r="L29" s="213"/>
       <c r="M29" s="132" t="s">
         <v>364</v>
       </c>
@@ -9207,7 +9215,7 @@
       <c r="AC29" s="92"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="228" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="38" t="s">
@@ -9242,7 +9250,7 @@
       <c r="AC30" s="92"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="199"/>
+      <c r="A31" s="228"/>
       <c r="B31" s="38" t="s">
         <v>216</v>
       </c>
@@ -9279,7 +9287,7 @@
       <c r="AC31" s="92"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="199"/>
+      <c r="A32" s="228"/>
       <c r="B32" s="38" t="s">
         <v>364</v>
       </c>
@@ -9292,7 +9300,9 @@
       <c r="E32" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="42" t="s">
+        <v>382</v>
+      </c>
       <c r="K32" s="31"/>
       <c r="L32" s="33"/>
       <c r="M32" s="38"/>
@@ -9367,7 +9377,9 @@
       <c r="E34" s="154" t="s">
         <v>286</v>
       </c>
-      <c r="F34" s="100"/>
+      <c r="F34" s="100" t="s">
+        <v>382</v>
+      </c>
       <c r="K34" s="31"/>
       <c r="L34" s="35"/>
       <c r="M34" s="38"/>
@@ -9393,16 +9405,16 @@
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
       <c r="J35" s="105"/>
-      <c r="L35" s="231" t="s">
+      <c r="L35" s="205" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="232"/>
-      <c r="N35" s="232"/>
-      <c r="O35" s="232"/>
-      <c r="P35" s="232"/>
-      <c r="Q35" s="232"/>
-      <c r="R35" s="232"/>
-      <c r="S35" s="233"/>
+      <c r="M35" s="206"/>
+      <c r="N35" s="206"/>
+      <c r="O35" s="206"/>
+      <c r="P35" s="206"/>
+      <c r="Q35" s="206"/>
+      <c r="R35" s="206"/>
+      <c r="S35" s="207"/>
       <c r="U35" s="79"/>
       <c r="V35" s="79"/>
       <c r="W35" s="79"/>
@@ -9415,16 +9427,16 @@
       <c r="AD35" s="26"/>
     </row>
     <row r="36" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="216" t="s">
         <v>295</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="189"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="217"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="218"/>
       <c r="J36" s="31"/>
       <c r="L36" s="63" t="s">
         <v>19</v>
@@ -11316,28 +11328,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="L7:L14"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="AA6:AE6"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="L35:S35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="L15:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Inventory.xlsx
+++ b/documents/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833799AA-2CE4-4594-9542-78CB10856979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55318B5-7676-4BC5-ADA7-17173E6D677E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="4-28 Inv. Etc." sheetId="5" r:id="rId3"/>
     <sheet name="4-28 PCB Inv." sheetId="4" r:id="rId4"/>
     <sheet name="4-30 Order Count" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_200151011034HC">Inventory!$B$75</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="424">
   <si>
     <t>Item#</t>
   </si>
@@ -1408,6 +1409,24 @@
   </si>
   <si>
     <t># to order (4/30)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>RECEIVING</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>621-AP7365-WG-7</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2550,20 +2569,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2652,86 +2749,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3080,12 +3108,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="182" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
@@ -3119,7 +3147,7 @@
       <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="185" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -3147,7 +3175,7 @@
       <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -3170,7 +3198,7 @@
       <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3203,7 +3231,7 @@
       <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="183" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3228,7 +3256,7 @@
       <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182"/>
+      <c r="A8" s="183"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3279,7 @@
       <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="182"/>
+      <c r="A9" s="183"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3274,7 +3302,7 @@
       <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="182"/>
+      <c r="A10" s="183"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3297,7 +3325,7 @@
       <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="182"/>
+      <c r="A11" s="183"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3320,7 +3348,7 @@
       <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182"/>
+      <c r="A12" s="183"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3382,7 +3410,7 @@
       <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="183" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3405,7 +3433,7 @@
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3425,7 +3453,7 @@
       <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="182"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3445,7 +3473,7 @@
       <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182"/>
+      <c r="A19" s="183"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3466,7 +3494,7 @@
       <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
+      <c r="A20" s="183"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3487,7 +3515,7 @@
       <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="182"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3507,7 +3535,7 @@
       <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="182"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3528,7 +3556,7 @@
       <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
+      <c r="A23" s="183"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3549,7 +3577,7 @@
       <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182"/>
+      <c r="A24" s="183"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3569,7 +3597,7 @@
       <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="182"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3589,7 +3617,7 @@
       <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="182"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3609,7 +3637,7 @@
       <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="182"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3636,7 +3664,7 @@
       <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="183" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3659,7 +3687,7 @@
       <c r="M29" s="66"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="182"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3679,7 +3707,7 @@
       <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="182"/>
+      <c r="A31" s="183"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3699,7 +3727,7 @@
       <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
+      <c r="A32" s="183"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3719,7 +3747,7 @@
       <c r="M32" s="66"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="182"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3739,7 +3767,7 @@
       <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="182"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3762,7 +3790,7 @@
       <c r="M34" s="66"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="182" t="s">
+      <c r="A36" s="183" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3779,7 +3807,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="182"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3794,7 +3822,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="182" t="s">
+      <c r="A39" s="183" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3817,7 +3845,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
+      <c r="A40" s="183"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3835,7 +3863,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="182"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3853,7 +3881,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="182"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3888,7 +3916,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="185" t="s">
+      <c r="A45" s="184" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3908,7 +3936,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="185"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3930,7 +3958,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="185" t="s">
+      <c r="A48" s="184" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3947,7 +3975,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="185"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3959,7 +3987,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="182" t="s">
+      <c r="A51" s="183" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3979,7 +4007,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="182"/>
+      <c r="A52" s="183"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3994,7 +4022,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="182"/>
+      <c r="A53" s="183"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -4009,7 +4037,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="182"/>
+      <c r="A54" s="183"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -4024,7 +4052,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="182"/>
+      <c r="A55" s="183"/>
       <c r="B55" s="36" t="s">
         <v>88</v>
       </c>
@@ -4042,7 +4070,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="182"/>
+      <c r="A56" s="183"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -4057,7 +4085,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="182"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -4072,7 +4100,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="182"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -4087,7 +4115,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="182"/>
+      <c r="A59" s="183"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -4102,7 +4130,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="182"/>
+      <c r="A60" s="183"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -4117,7 +4145,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="182"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -4135,7 +4163,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="182"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="36" t="s">
         <v>121</v>
       </c>
@@ -4153,7 +4181,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="182"/>
+      <c r="A63" s="183"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -4171,7 +4199,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="182"/>
+      <c r="A64" s="183"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4189,7 +4217,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="182"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4207,7 +4235,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="182"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4222,7 +4250,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="182"/>
+      <c r="A67" s="183"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4237,7 +4265,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="182"/>
+      <c r="A68" s="183"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4252,7 +4280,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="182" t="s">
+      <c r="A70" s="183" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4272,7 +4300,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="182"/>
+      <c r="A71" s="183"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4284,7 +4312,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="182"/>
+      <c r="A72" s="183"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4300,7 +4328,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="182" t="s">
+      <c r="A74" s="183" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4321,7 +4349,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="182"/>
+      <c r="A75" s="183"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4336,7 +4364,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="182"/>
+      <c r="A76" s="183"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4351,7 +4379,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="182"/>
+      <c r="A77" s="183"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4366,7 +4394,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="182"/>
+      <c r="A78" s="183"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4381,7 +4409,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="182"/>
+      <c r="A79" s="183"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4396,7 +4424,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="182"/>
+      <c r="A80" s="183"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4411,7 +4439,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="182"/>
+      <c r="A81" s="183"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4427,11 +4455,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4439,6 +4462,11 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4468,111 +4496,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="190" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="221"/>
-      <c r="H1" s="237" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="192"/>
+      <c r="H1" s="208" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="238"/>
-      <c r="J1" s="239"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="210"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="222"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="224"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="195"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="235" t="s">
+      <c r="I2" s="206" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="236"/>
+      <c r="J2" s="207"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="227"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="198"/>
       <c r="H3" s="107"/>
-      <c r="I3" s="235" t="s">
+      <c r="I3" s="206" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="236"/>
+      <c r="J3" s="207"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="200" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="230"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
       <c r="F4" s="41"/>
       <c r="G4" s="31"/>
       <c r="H4" s="114"/>
-      <c r="I4" s="235" t="s">
+      <c r="I4" s="206" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="236"/>
+      <c r="J4" s="207"/>
       <c r="K4" s="106"/>
-      <c r="L4" s="187" t="s">
+      <c r="L4" s="213" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="189"/>
+      <c r="M4" s="214"/>
+      <c r="N4" s="214"/>
+      <c r="O4" s="214"/>
+      <c r="P4" s="215"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="79"/>
       <c r="U4" s="79"/>
-      <c r="V4" s="196" t="s">
+      <c r="V4" s="222" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="198"/>
+      <c r="W4" s="223"/>
+      <c r="X4" s="223"/>
+      <c r="Y4" s="223"/>
+      <c r="Z4" s="224"/>
       <c r="AA4" s="79"/>
       <c r="AB4" s="31"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="231"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="232"/>
+      <c r="A5" s="202"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="203"/>
       <c r="F5" s="41"/>
       <c r="G5" s="31"/>
       <c r="H5" s="121"/>
-      <c r="I5" s="240" t="s">
+      <c r="I5" s="211" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="241"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="191"/>
-      <c r="N5" s="191"/>
-      <c r="O5" s="191"/>
-      <c r="P5" s="192"/>
+      <c r="J5" s="212"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="218"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="79"/>
       <c r="U5" s="79"/>
-      <c r="V5" s="199"/>
-      <c r="W5" s="200"/>
-      <c r="X5" s="200"/>
-      <c r="Y5" s="200"/>
-      <c r="Z5" s="201"/>
+      <c r="V5" s="225"/>
+      <c r="W5" s="226"/>
+      <c r="X5" s="226"/>
+      <c r="Y5" s="226"/>
+      <c r="Z5" s="227"/>
       <c r="AA5" s="79"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,16 +4658,16 @@
       <c r="Z6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="214" t="s">
+      <c r="AA6" s="240" t="s">
         <v>390</v>
       </c>
-      <c r="AB6" s="215"/>
-      <c r="AC6" s="215"/>
-      <c r="AD6" s="215"/>
-      <c r="AE6" s="215"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="241"/>
+      <c r="AD6" s="241"/>
+      <c r="AE6" s="241"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="199" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="74" t="s">
@@ -4660,7 +4688,7 @@
       <c r="G7" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L7" s="193" t="s">
+      <c r="L7" s="219" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="74" t="s">
@@ -4702,7 +4730,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="228"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4721,7 +4749,7 @@
       <c r="G8" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="194"/>
+      <c r="L8" s="220"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4761,7 +4789,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="228"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4780,7 +4808,7 @@
       <c r="G9" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="194"/>
+      <c r="L9" s="220"/>
       <c r="M9" s="26" t="s">
         <v>173</v>
       </c>
@@ -4820,7 +4848,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="228"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4839,7 +4867,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="194"/>
+      <c r="L10" s="220"/>
       <c r="M10" s="26" t="s">
         <v>178</v>
       </c>
@@ -4877,7 +4905,7 @@
       <c r="AA10" s="79"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="228"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4896,7 +4924,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="194"/>
+      <c r="L11" s="220"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4924,7 +4952,7 @@
       <c r="AA11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="228"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4943,7 +4971,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="194"/>
+      <c r="L12" s="220"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4971,7 +4999,7 @@
       <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="228"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4990,7 +5018,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="194"/>
+      <c r="L13" s="220"/>
       <c r="M13" s="26" t="s">
         <v>181</v>
       </c>
@@ -5018,7 +5046,7 @@
       <c r="AB13" s="79"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="233"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="77" t="s">
         <v>181</v>
       </c>
@@ -5037,7 +5065,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="L14" s="221"/>
       <c r="M14" s="77" t="s">
         <v>350</v>
       </c>
@@ -5066,7 +5094,7 @@
       <c r="AC14" s="79"/>
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="234" t="s">
+      <c r="A15" s="205" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="78" t="s">
@@ -5087,7 +5115,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="208" t="s">
+      <c r="L15" s="234" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="78" t="s">
@@ -5108,19 +5136,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="202" t="s">
+      <c r="V15" s="228" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="203"/>
-      <c r="X15" s="203"/>
-      <c r="Y15" s="203"/>
-      <c r="Z15" s="203"/>
-      <c r="AA15" s="203"/>
-      <c r="AB15" s="203"/>
-      <c r="AC15" s="204"/>
+      <c r="W15" s="229"/>
+      <c r="X15" s="229"/>
+      <c r="Y15" s="229"/>
+      <c r="Z15" s="229"/>
+      <c r="AA15" s="229"/>
+      <c r="AB15" s="229"/>
+      <c r="AC15" s="230"/>
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="228"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -5139,7 +5167,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="209"/>
+      <c r="L16" s="235"/>
       <c r="M16" s="26" t="s">
         <v>183</v>
       </c>
@@ -5171,7 +5199,7 @@
       <c r="AC16" s="108"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="233"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="77" t="s">
         <v>185</v>
       </c>
@@ -5190,7 +5218,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="209"/>
+      <c r="L17" s="235"/>
       <c r="M17" s="26" t="s">
         <v>185</v>
       </c>
@@ -5225,7 +5253,7 @@
       <c r="AC17" s="89"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="234" t="s">
+      <c r="A18" s="205" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="139" t="s">
@@ -5243,7 +5271,7 @@
       <c r="F18" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L18" s="209"/>
+      <c r="L18" s="235"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5278,7 +5306,7 @@
       <c r="AC18" s="92"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="228"/>
+      <c r="A19" s="199"/>
       <c r="B19" s="139" t="s">
         <v>191</v>
       </c>
@@ -5294,7 +5322,7 @@
       <c r="F19" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L19" s="210"/>
+      <c r="L19" s="236"/>
       <c r="M19" s="77" t="s">
         <v>356</v>
       </c>
@@ -5329,7 +5357,7 @@
       <c r="AC19" s="92"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="228"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="139" t="s">
         <v>193</v>
       </c>
@@ -5345,7 +5373,7 @@
       <c r="F20" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L20" s="208" t="s">
+      <c r="L20" s="234" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="26" t="s">
@@ -5373,7 +5401,7 @@
       <c r="AC20" s="92"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="228"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="139" t="s">
         <v>195</v>
       </c>
@@ -5389,7 +5417,7 @@
       <c r="F21" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L21" s="209"/>
+      <c r="L21" s="235"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5417,7 +5445,7 @@
       <c r="AC21" s="92"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="233"/>
+      <c r="A22" s="204"/>
       <c r="B22" s="144" t="s">
         <v>197</v>
       </c>
@@ -5433,7 +5461,7 @@
       <c r="F22" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L22" s="209"/>
+      <c r="L22" s="235"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5465,7 +5493,7 @@
       <c r="AC22" s="92"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="234" t="s">
+      <c r="A23" s="205" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="149" t="s">
@@ -5483,7 +5511,7 @@
       <c r="F23" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L23" s="209"/>
+      <c r="L23" s="235"/>
       <c r="M23" s="26" t="s">
         <v>359</v>
       </c>
@@ -5515,7 +5543,7 @@
       <c r="AC23" s="92"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="228"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5531,7 +5559,7 @@
       <c r="F24" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L24" s="209"/>
+      <c r="L24" s="235"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5563,7 +5591,7 @@
       <c r="AC24" s="92"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="228"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="139" t="s">
         <v>205</v>
       </c>
@@ -5579,7 +5607,7 @@
       <c r="F25" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L25" s="209"/>
+      <c r="L25" s="235"/>
       <c r="M25" s="85" t="s">
         <v>361</v>
       </c>
@@ -5605,7 +5633,7 @@
       <c r="AC25" s="92"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="228"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5621,7 +5649,7 @@
       <c r="F26" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L26" s="210"/>
+      <c r="L26" s="236"/>
       <c r="M26" s="131" t="s">
         <v>362</v>
       </c>
@@ -5649,7 +5677,7 @@
       <c r="AC26" s="92"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="228"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5665,7 +5693,7 @@
       <c r="F27" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L27" s="211" t="s">
+      <c r="L27" s="237" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="70" t="s">
@@ -5702,7 +5730,7 @@
       <c r="AC27" s="92"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="228"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="118" t="s">
         <v>376</v>
       </c>
@@ -5716,7 +5744,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="100"/>
-      <c r="L28" s="212"/>
+      <c r="L28" s="238"/>
       <c r="M28" s="26"/>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
@@ -5738,7 +5766,7 @@
       <c r="AC28" s="92"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="233"/>
+      <c r="A29" s="204"/>
       <c r="B29" s="142" t="s">
         <v>377</v>
       </c>
@@ -5754,7 +5782,7 @@
       <c r="F29" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L29" s="213"/>
+      <c r="L29" s="239"/>
       <c r="M29" s="132" t="s">
         <v>364</v>
       </c>
@@ -5783,7 +5811,7 @@
       <c r="AC29" s="92"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="228" t="s">
+      <c r="A30" s="199" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5823,7 +5851,7 @@
       <c r="AC30" s="92"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="228"/>
+      <c r="A31" s="199"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5862,7 +5890,7 @@
       <c r="AC31" s="92"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="228"/>
+      <c r="A32" s="199"/>
       <c r="B32" s="38" t="s">
         <v>364</v>
       </c>
@@ -5980,16 +6008,16 @@
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
       <c r="J35" s="105"/>
-      <c r="L35" s="205" t="s">
+      <c r="L35" s="231" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="206"/>
-      <c r="N35" s="206"/>
-      <c r="O35" s="206"/>
-      <c r="P35" s="206"/>
-      <c r="Q35" s="206"/>
-      <c r="R35" s="206"/>
-      <c r="S35" s="207"/>
+      <c r="M35" s="232"/>
+      <c r="N35" s="232"/>
+      <c r="O35" s="232"/>
+      <c r="P35" s="232"/>
+      <c r="Q35" s="232"/>
+      <c r="R35" s="232"/>
+      <c r="S35" s="233"/>
       <c r="U35" s="79"/>
       <c r="V35" s="79"/>
       <c r="W35" s="79"/>
@@ -6002,16 +6030,16 @@
       <c r="AD35" s="26"/>
     </row>
     <row r="36" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="216" t="s">
+      <c r="B36" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="217"/>
-      <c r="E36" s="217"/>
-      <c r="F36" s="217"/>
-      <c r="G36" s="217"/>
-      <c r="H36" s="217"/>
-      <c r="I36" s="218"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="189"/>
       <c r="J36" s="31"/>
       <c r="L36" s="63" t="s">
         <v>19</v>
@@ -7903,6 +7931,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="AA6:AE6"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7916,15 +7953,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L35:S35"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="AA6:AE6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8042,8 +8070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1A9C66-1455-44D0-A321-27231B372C5D}">
   <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,107 +8089,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="190" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="221"/>
-      <c r="H1" s="237" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="192"/>
+      <c r="H1" s="208" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="238"/>
-      <c r="J1" s="239"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="210"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="222"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="224"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="195"/>
       <c r="H2" s="147"/>
-      <c r="I2" s="235" t="s">
+      <c r="I2" s="206" t="s">
         <v>385</v>
       </c>
-      <c r="J2" s="236"/>
+      <c r="J2" s="207"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="227"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="198"/>
       <c r="H3" s="159"/>
-      <c r="I3" s="240" t="s">
+      <c r="I3" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="J3" s="241"/>
+      <c r="J3" s="212"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="200" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="230"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
       <c r="F4" s="41"/>
       <c r="G4" s="31"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
       <c r="K4" s="106"/>
-      <c r="L4" s="187" t="s">
+      <c r="L4" s="213" t="s">
         <v>396</v>
       </c>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="189"/>
+      <c r="M4" s="214"/>
+      <c r="N4" s="214"/>
+      <c r="O4" s="214"/>
+      <c r="P4" s="215"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="79"/>
       <c r="U4" s="79"/>
-      <c r="V4" s="196" t="s">
+      <c r="V4" s="222" t="s">
         <v>397</v>
       </c>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="198"/>
+      <c r="W4" s="223"/>
+      <c r="X4" s="223"/>
+      <c r="Y4" s="223"/>
+      <c r="Z4" s="224"/>
       <c r="AA4" s="79"/>
       <c r="AB4" s="31"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="231"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="232"/>
+      <c r="A5" s="202"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="203"/>
       <c r="F5" s="41"/>
       <c r="G5" s="31"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="235"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="191"/>
-      <c r="N5" s="191"/>
-      <c r="O5" s="191"/>
-      <c r="P5" s="192"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="218"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="79"/>
       <c r="U5" s="79"/>
-      <c r="V5" s="199"/>
-      <c r="W5" s="200"/>
-      <c r="X5" s="200"/>
-      <c r="Y5" s="200"/>
-      <c r="Z5" s="201"/>
+      <c r="V5" s="225"/>
+      <c r="W5" s="226"/>
+      <c r="X5" s="226"/>
+      <c r="Y5" s="226"/>
+      <c r="Z5" s="227"/>
       <c r="AA5" s="79"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8217,14 +8245,14 @@
       <c r="Z6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="214"/>
-      <c r="AB6" s="215"/>
-      <c r="AC6" s="215"/>
-      <c r="AD6" s="215"/>
-      <c r="AE6" s="215"/>
+      <c r="AA6" s="240"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="241"/>
+      <c r="AD6" s="241"/>
+      <c r="AE6" s="241"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="199" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="74" t="s">
@@ -8239,9 +8267,11 @@
       <c r="E7" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="156"/>
+      <c r="F7" s="156" t="s">
+        <v>382</v>
+      </c>
       <c r="G7" s="31"/>
-      <c r="L7" s="193" t="s">
+      <c r="L7" s="219" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="74" t="s">
@@ -8276,7 +8306,7 @@
       <c r="AA7" s="79"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="228"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -8289,9 +8319,11 @@
       <c r="E8" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="156"/>
+      <c r="F8" s="156" t="s">
+        <v>382</v>
+      </c>
       <c r="G8" s="31"/>
-      <c r="L8" s="194"/>
+      <c r="L8" s="220"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -8324,7 +8356,7 @@
       <c r="AA8" s="79"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="228"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -8337,9 +8369,11 @@
       <c r="E9" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G9" s="31"/>
-      <c r="L9" s="194"/>
+      <c r="L9" s="220"/>
       <c r="M9" s="26" t="s">
         <v>173</v>
       </c>
@@ -8372,7 +8406,7 @@
       <c r="AA9" s="79"/>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="228"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -8385,9 +8419,11 @@
       <c r="E10" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G10" s="26"/>
-      <c r="L10" s="194"/>
+      <c r="L10" s="220"/>
       <c r="M10" s="26" t="s">
         <v>178</v>
       </c>
@@ -8420,7 +8456,7 @@
       <c r="AA10" s="79"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="228"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -8433,9 +8469,11 @@
       <c r="E11" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G11" s="26"/>
-      <c r="L11" s="194"/>
+      <c r="L11" s="220"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -8458,7 +8496,7 @@
       <c r="AA11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="228"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -8471,9 +8509,11 @@
       <c r="E12" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G12" s="26"/>
-      <c r="L12" s="194"/>
+      <c r="L12" s="220"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -8496,7 +8536,7 @@
       <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="228"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -8509,9 +8549,11 @@
       <c r="E13" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G13" s="26"/>
-      <c r="L13" s="194"/>
+      <c r="L13" s="220"/>
       <c r="M13" s="26" t="s">
         <v>181</v>
       </c>
@@ -8534,7 +8576,7 @@
       <c r="AB13" s="79"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="233"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="77" t="s">
         <v>181</v>
       </c>
@@ -8547,9 +8589,11 @@
       <c r="E14" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G14" s="26"/>
-      <c r="L14" s="195"/>
+      <c r="L14" s="221"/>
       <c r="M14" s="77" t="s">
         <v>350</v>
       </c>
@@ -8573,7 +8617,7 @@
       <c r="AC14" s="79"/>
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="234" t="s">
+      <c r="A15" s="205" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="78" t="s">
@@ -8588,9 +8632,11 @@
       <c r="E15" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="9" t="s">
+        <v>418</v>
+      </c>
       <c r="G15" s="26"/>
-      <c r="L15" s="208" t="s">
+      <c r="L15" s="234" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="78" t="s">
@@ -8606,19 +8652,19 @@
         <v>352</v>
       </c>
       <c r="Q15" s="41"/>
-      <c r="V15" s="202" t="s">
+      <c r="V15" s="228" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="203"/>
-      <c r="X15" s="203"/>
-      <c r="Y15" s="203"/>
-      <c r="Z15" s="203"/>
-      <c r="AA15" s="203"/>
-      <c r="AB15" s="203"/>
-      <c r="AC15" s="204"/>
+      <c r="W15" s="229"/>
+      <c r="X15" s="229"/>
+      <c r="Y15" s="229"/>
+      <c r="Z15" s="229"/>
+      <c r="AA15" s="229"/>
+      <c r="AB15" s="229"/>
+      <c r="AC15" s="230"/>
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="228"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -8635,7 +8681,7 @@
         <v>382</v>
       </c>
       <c r="G16" s="26"/>
-      <c r="L16" s="209"/>
+      <c r="L16" s="235"/>
       <c r="M16" s="26" t="s">
         <v>183</v>
       </c>
@@ -8662,7 +8708,7 @@
       <c r="AC16" s="108"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="233"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="161" t="s">
         <v>185</v>
       </c>
@@ -8679,7 +8725,7 @@
         <v>382</v>
       </c>
       <c r="G17" s="26"/>
-      <c r="L17" s="209"/>
+      <c r="L17" s="235"/>
       <c r="M17" s="26" t="s">
         <v>185</v>
       </c>
@@ -8709,7 +8755,7 @@
       <c r="AC17" s="89"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="234" t="s">
+      <c r="A18" s="205" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -8724,8 +8770,10 @@
       <c r="E18" s="165" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="L18" s="209"/>
+      <c r="F18" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="L18" s="235"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -8755,7 +8803,7 @@
       <c r="AC18" s="92"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="228"/>
+      <c r="A19" s="199"/>
       <c r="B19" s="38" t="s">
         <v>191</v>
       </c>
@@ -8769,7 +8817,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="100"/>
-      <c r="L19" s="210"/>
+      <c r="L19" s="236"/>
       <c r="M19" s="77" t="s">
         <v>356</v>
       </c>
@@ -8799,7 +8847,7 @@
       <c r="AC19" s="92"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="228"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="38" t="s">
         <v>193</v>
       </c>
@@ -8812,8 +8860,10 @@
       <c r="E20" s="165" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="L20" s="208" t="s">
+      <c r="F20" s="100" t="s">
+        <v>418</v>
+      </c>
+      <c r="L20" s="234" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="26" t="s">
@@ -8839,7 +8889,7 @@
       <c r="AC20" s="92"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="228"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="38" t="s">
         <v>195</v>
       </c>
@@ -8853,7 +8903,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="100"/>
-      <c r="L21" s="209"/>
+      <c r="L21" s="235"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -8879,7 +8929,7 @@
       <c r="AC21" s="92"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="233"/>
+      <c r="A22" s="204"/>
       <c r="B22" s="161" t="s">
         <v>197</v>
       </c>
@@ -8893,7 +8943,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="100"/>
-      <c r="L22" s="209"/>
+      <c r="L22" s="235"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -8923,7 +8973,7 @@
       <c r="AC22" s="92"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="234" t="s">
+      <c r="A23" s="205" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="149" t="s">
@@ -8939,7 +8989,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="100"/>
-      <c r="L23" s="209"/>
+      <c r="L23" s="235"/>
       <c r="M23" s="148" t="s">
         <v>359</v>
       </c>
@@ -8969,7 +9019,7 @@
       <c r="AC23" s="92"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="228"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="38" t="s">
         <v>203</v>
       </c>
@@ -8985,7 +9035,7 @@
       <c r="F24" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L24" s="209"/>
+      <c r="L24" s="235"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -9015,7 +9065,7 @@
       <c r="AC24" s="92"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="228"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="38" t="s">
         <v>205</v>
       </c>
@@ -9031,7 +9081,7 @@
       <c r="F25" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L25" s="209"/>
+      <c r="L25" s="235"/>
       <c r="M25" s="85" t="s">
         <v>361</v>
       </c>
@@ -9055,7 +9105,7 @@
       <c r="AC25" s="92"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="228"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="166" t="s">
         <v>207</v>
       </c>
@@ -9069,7 +9119,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="100"/>
-      <c r="L26" s="210"/>
+      <c r="L26" s="236"/>
       <c r="M26" s="131" t="s">
         <v>362</v>
       </c>
@@ -9095,7 +9145,7 @@
       <c r="AC26" s="92"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="228"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="38" t="s">
         <v>209</v>
       </c>
@@ -9109,7 +9159,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="100"/>
-      <c r="L27" s="211" t="s">
+      <c r="L27" s="237" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="70" t="s">
@@ -9141,7 +9191,7 @@
       <c r="AC27" s="92"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="228"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="169" t="s">
         <v>376</v>
       </c>
@@ -9155,7 +9205,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="100"/>
-      <c r="L28" s="212"/>
+      <c r="L28" s="238"/>
       <c r="M28" s="26"/>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
@@ -9177,7 +9227,7 @@
       <c r="AC28" s="92"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="233"/>
+      <c r="A29" s="204"/>
       <c r="B29" s="172" t="s">
         <v>377</v>
       </c>
@@ -9191,7 +9241,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="100"/>
-      <c r="L29" s="213"/>
+      <c r="L29" s="239"/>
       <c r="M29" s="132" t="s">
         <v>364</v>
       </c>
@@ -9215,7 +9265,7 @@
       <c r="AC29" s="92"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="228" t="s">
+      <c r="A30" s="199" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="38" t="s">
@@ -9250,7 +9300,7 @@
       <c r="AC30" s="92"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="228"/>
+      <c r="A31" s="199"/>
       <c r="B31" s="38" t="s">
         <v>216</v>
       </c>
@@ -9287,7 +9337,7 @@
       <c r="AC31" s="92"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="228"/>
+      <c r="A32" s="199"/>
       <c r="B32" s="38" t="s">
         <v>364</v>
       </c>
@@ -9405,16 +9455,16 @@
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
       <c r="J35" s="105"/>
-      <c r="L35" s="205" t="s">
+      <c r="L35" s="231" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="206"/>
-      <c r="N35" s="206"/>
-      <c r="O35" s="206"/>
-      <c r="P35" s="206"/>
-      <c r="Q35" s="206"/>
-      <c r="R35" s="206"/>
-      <c r="S35" s="207"/>
+      <c r="M35" s="232"/>
+      <c r="N35" s="232"/>
+      <c r="O35" s="232"/>
+      <c r="P35" s="232"/>
+      <c r="Q35" s="232"/>
+      <c r="R35" s="232"/>
+      <c r="S35" s="233"/>
       <c r="U35" s="79"/>
       <c r="V35" s="79"/>
       <c r="W35" s="79"/>
@@ -9427,16 +9477,16 @@
       <c r="AD35" s="26"/>
     </row>
     <row r="36" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="216" t="s">
+      <c r="B36" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="217"/>
-      <c r="E36" s="217"/>
-      <c r="F36" s="217"/>
-      <c r="G36" s="217"/>
-      <c r="H36" s="217"/>
-      <c r="I36" s="218"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="189"/>
       <c r="J36" s="31"/>
       <c r="L36" s="63" t="s">
         <v>19</v>
@@ -11328,28 +11378,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="L35:S35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="L4:P5"/>
     <mergeCell ref="V4:Z5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="AA6:AE6"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="L7:L14"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="L15:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12799,4 +12849,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FB0663-D707-4E8F-8428-1FC5F28A2AC5}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="244" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="243" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="112" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="245">
+        <v>44328</v>
+      </c>
+      <c r="B3" s="244" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>